--- a/Masters/Equipment/EquipmentUpgradeMaster/ClassSchema.xlsx
+++ b/Masters/Equipment/EquipmentUpgradeMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Equipment\EquipmentUpgradeMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333A9F0-60DC-4A89-AC92-54E8A11460C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBAE4B2-9072-4C72-BA61-3641F9616427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>強化ID</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>最大強化倍率</t>
   </si>
   <si>
-    <t>int?</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -84,6 +78,22 @@
   </si>
   <si>
     <t>MaxStatusRate</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint?</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -506,7 +516,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -518,25 +528,25 @@
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -600,25 +610,25 @@
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -641,25 +651,25 @@
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
